--- a/excel_routes/route_AJF_CAI_threats.xlsx
+++ b/excel_routes/route_AJF_CAI_threats.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>600</v>
+        <v>421</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>668</v>
+        <v>458</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-68</v>
+        <v>-37</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -565,51 +565,6 @@
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>05-MAR-26</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>SM-322</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-120</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>950</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>998</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>-48</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_AJF_CAI_threats.xlsx
+++ b/excel_routes/route_AJF_CAI_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,12 +44,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="003498DB"/>
         <bgColor rgb="003498DB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4EDDA"/>
-        <bgColor rgb="00D4EDDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>21-MAY-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -547,17 +538,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-120</t>
+          <t>Nile Air NP-110</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>998</v>
+        <v>1188</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-48</v>
+        <v>-638</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -570,55 +561,10 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>21-MAY-26</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>SM-322</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-110</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1188</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>-638</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_AJF_CAI_threats.xlsx
+++ b/excel_routes/route_AJF_CAI_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="003498DB"/>
         <bgColor rgb="003498DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D4EDDA"/>
+        <bgColor rgb="00D4EDDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -71,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -80,6 +86,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -538,17 +547,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-110</t>
+          <t>Nile Air NP-120</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1188</v>
+        <v>521</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-638</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -561,10 +570,100 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>19-MAR-26</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>SM-322</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-120</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>950</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>998</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>-48</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>21-MAY-26</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>SM-322</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-110</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1188</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>-588</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_AJF_CAI_threats.xlsx
+++ b/excel_routes/route_AJF_CAI_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614D3794-A642-4793-BCB7-A52AAD9C899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D1F439-FBB9-4A31-9504-FA955F15B9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -75,7 +75,16 @@
     <t>SAR</t>
   </si>
   <si>
-    <t>12-FEB-26</t>
+    <t>19-MAR-26</t>
+  </si>
+  <si>
+    <t>21-MAY-26</t>
+  </si>
+  <si>
+    <t>Nile Air NP-110</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
   </si>
 </sst>
 </file>
@@ -102,7 +111,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +128,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EDDA"/>
         <bgColor rgb="FFD4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D7DA"/>
+        <bgColor rgb="FFF8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +173,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,7 +481,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +495,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -527,13 +545,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>650</v>
+        <v>520</v>
       </c>
       <c r="E2" s="2">
-        <v>668</v>
+        <v>521</v>
       </c>
       <c r="F2" s="2">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -562,13 +580,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="E3" s="2">
-        <v>668</v>
+        <v>998</v>
       </c>
       <c r="F3" s="2">
-        <v>-18</v>
+        <v>-48</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -583,6 +601,41 @@
         <v>14</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>600</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1188</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-588</v>
+      </c>
+      <c r="G4" s="2">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel_routes/route_AJF_CAI_threats.xlsx
+++ b/excel_routes/route_AJF_CAI_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -551,13 +542,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>745</v>
+        <v>650</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>788</v>
+        <v>728</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-43</v>
+        <v>-78</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -582,27 +573,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>11-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-970</t>
+          <t>SM-322</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-110</t>
+          <t>Nile Air NP-120</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>950</v>
+        <v>745</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1838</v>
+        <v>848</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-888</v>
+        <v>-103</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -613,9 +604,9 @@
       <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -627,12 +618,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>11-MAR-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-322</t>
+          <t>SM-970</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -641,13 +632,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>845</v>
+        <v>745</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>848</v>
+        <v>788</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-3</v>
+        <v>-43</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -664,6 +655,96 @@
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>12-MAR-26</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>SM-322</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-120</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>845</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>848</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>26-MAR-26</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>SM-322</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-120</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>745</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>788</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-43</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
